--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerate/DatabaseGenerate/Resource/AncientBooks/Emperor.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerate/DatabaseGenerate/Resource/AncientBooks/Emperor.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9204"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2278,7 +2291,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -3234,32 +3247,32 @@
   <sheetPr/>
   <dimension ref="A1:X646"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A633" workbookViewId="0">
-      <selection activeCell="D641" sqref="D641"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A622" workbookViewId="0">
+      <selection activeCell="A641" sqref="A641:A646"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.775" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.1111111111111" style="1"/>
-    <col min="2" max="2" width="16.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.9722222222222" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.07407407407407" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1083333333333" style="1"/>
+    <col min="2" max="2" width="16.8916666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.975" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.075" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1018518518519" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6481481481481" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="9" max="10" width="13.1111111111111" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="12" max="15" width="9.77777777777778" style="1"/>
-    <col min="16" max="16" width="18.1111111111111" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1388888888889" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.462962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.2037037037037" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.0462962962963" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.65" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.8916666666667" style="1" customWidth="1"/>
+    <col min="9" max="10" width="13.1083333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8916666666667" style="1" customWidth="1"/>
+    <col min="12" max="15" width="9.775" style="1"/>
+    <col min="16" max="16" width="18.1083333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1416666666667" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.4666666666667" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.2" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.05" style="1" customWidth="1"/>
     <col min="21" max="21" width="10.9166666666667" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6203703703704" style="1" customWidth="1"/>
-    <col min="23" max="23" width="14.4444444444444" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.77777777777778" style="1"/>
+    <col min="22" max="22" width="10.6166666666667" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.4416666666667" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.775" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -12370,11 +12383,11 @@
     </row>
     <row r="641" spans="1:6">
       <c r="A641" s="1">
-        <v>1100510001</v>
+        <v>1000910001</v>
       </c>
       <c r="B641" s="1">
-        <f>A641</f>
-        <v>1100510001</v>
+        <f t="shared" ref="B641:B646" si="40">A641</f>
+        <v>1000910001</v>
       </c>
       <c r="C641" s="1" t="s">
         <v>740</v>
@@ -12388,11 +12401,11 @@
     </row>
     <row r="642" spans="1:6">
       <c r="A642" s="1">
-        <v>1100510002</v>
+        <v>1000910002</v>
       </c>
       <c r="B642" s="1">
-        <f>A642</f>
-        <v>1100510002</v>
+        <f t="shared" si="40"/>
+        <v>1000910002</v>
       </c>
       <c r="C642" s="1" t="s">
         <v>743</v>
@@ -12403,11 +12416,11 @@
     </row>
     <row r="643" spans="1:6">
       <c r="A643" s="1">
-        <v>1100510003</v>
+        <v>1000910003</v>
       </c>
       <c r="B643" s="1">
-        <f>A643</f>
-        <v>1100510003</v>
+        <f t="shared" si="40"/>
+        <v>1000910003</v>
       </c>
       <c r="C643" s="1" t="s">
         <v>745</v>
@@ -12418,11 +12431,11 @@
     </row>
     <row r="644" spans="1:6">
       <c r="A644" s="1">
-        <v>1100510004</v>
+        <v>1000910004</v>
       </c>
       <c r="B644" s="1">
-        <f>A644</f>
-        <v>1100510004</v>
+        <f t="shared" si="40"/>
+        <v>1000910004</v>
       </c>
       <c r="C644" s="1" t="s">
         <v>747</v>
@@ -12433,11 +12446,11 @@
     </row>
     <row r="645" spans="1:6">
       <c r="A645" s="1">
-        <v>1100510005</v>
+        <v>1000910005</v>
       </c>
       <c r="B645" s="1">
-        <f>A645</f>
-        <v>1100510005</v>
+        <f t="shared" si="40"/>
+        <v>1000910005</v>
       </c>
       <c r="C645" s="1" t="s">
         <v>749</v>
@@ -12448,11 +12461,11 @@
     </row>
     <row r="646" spans="1:6">
       <c r="A646" s="1">
-        <v>1100510006</v>
+        <v>1000910006</v>
       </c>
       <c r="B646" s="1">
-        <f>A646</f>
-        <v>1100510006</v>
+        <f t="shared" si="40"/>
+        <v>1000910006</v>
       </c>
       <c r="C646" s="1" t="s">
         <v>751</v>
